--- a/biology/Médecine/1306_en_santé_et_médecine/1306_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1306_en_santé_et_médecine/1306_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1306_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1306_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1306 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1306_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1306_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Un hôpital des pauvres consacré à saint Jean-Baptiste (Hospital of St. John Baptist) est attesté sur le pont de Stony Stratford dans le comté de Buckingham en Angleterre[1].
-L'hôpital de la Porte-Neuve est attesté à Toulouse[2].
-L'hospice St.-Remberti-Stift (de) de Brême est mentionné pour la première fois, en tant que léproserie[3],[4].
-Avant 1306 : Étienne Haudry, maître drapier parisien, fait construire un hôpital des pauvres qu'il confie aux Haudriettes, congrégation fondée par Jeanne, son épouse[5],[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Un hôpital des pauvres consacré à saint Jean-Baptiste (Hospital of St. John Baptist) est attesté sur le pont de Stony Stratford dans le comté de Buckingham en Angleterre.
+L'hôpital de la Porte-Neuve est attesté à Toulouse.
+L'hospice St.-Remberti-Stift (de) de Brême est mentionné pour la première fois, en tant que léproserie,.
+Avant 1306 : Étienne Haudry, maître drapier parisien, fait construire un hôpital des pauvres qu'il confie aux Haudriettes, congrégation fondée par Jeanne, son épouse,.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1306_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1306_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Dans un mémoire adressé à Édouard Ier, roi d'Angleterre, et beau-frère de Philippe le Bel, le légiste Pierre Dubois propose que, pour renforcer les armées croisées, les filles des chevaliers apprennent « le latin, la logique, une langue orientale et les sciences naturelles, mais surtout la médecine et la chirurgie[7] ».
-Vers 1306 : le chirurgien Guillem Correger dédicace au roi Jacques II de Majorque sa traduction en catalan de la Chirurgie de Théodoric[8].
-1306-1312 : Henri de Mondeville, chirurgien de Philippe le Bel, travaillant au plus ancien ouvrage publié en français sur ce thème, rédige les deux premières parties, consacrées à l'anatomie et aux plaies, contusions et ulcères, d'une « Chirurgie » qu'il n'achèvera qu'en 1320[9].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dans un mémoire adressé à Édouard Ier, roi d'Angleterre, et beau-frère de Philippe le Bel, le légiste Pierre Dubois propose que, pour renforcer les armées croisées, les filles des chevaliers apprennent « le latin, la logique, une langue orientale et les sciences naturelles, mais surtout la médecine et la chirurgie ».
+Vers 1306 : le chirurgien Guillem Correger dédicace au roi Jacques II de Majorque sa traduction en catalan de la Chirurgie de Théodoric.
+1306-1312 : Henri de Mondeville, chirurgien de Philippe le Bel, travaillant au plus ancien ouvrage publié en français sur ce thème, rédige les deux premières parties, consacrées à l'anatomie et aux plaies, contusions et ulcères, d'une « Chirurgie » qu'il n'achèvera qu'en 1320.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1306_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1306_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,11 +592,13 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Aymonet, Estévenet d'Ansa, Guichard[10], Jeannet, Martin et Philippe[11], barbiers à Lyon et confrères de la Trinité[12].
-Fl. Humbert de Marcilly, médecin qui assiste à Vernon, en Normandie, aux derniers moments de Robert II, duc de Bourgogne[10].
-Vers 1306 : fl. Abraham, médecin juif de Narbonne en Languedoc[10].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Aymonet, Estévenet d'Ansa, Guichard, Jeannet, Martin et Philippe, barbiers à Lyon et confrères de la Trinité.
+Fl. Humbert de Marcilly, médecin qui assiste à Vernon, en Normandie, aux derniers moments de Robert II, duc de Bourgogne.
+Vers 1306 : fl. Abraham, médecin juif de Narbonne en Languedoc.</t>
         </is>
       </c>
     </row>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1306_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1306_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,10 +626,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lanfranc de Milan (né vers 1250), médecin et chirurgien italien dont la Chirurgia magna, dédiée en 1296 à Philippe le Bel, « dominera tout l'enseignement chirurgical jusqu'à l'apparition de Guy de Chauliac[14] ».
-1305 ou 1306 : Jacob ibn Tibbon (né vers 1236), astronome, médecin et traducteur juif provençal[15].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lanfranc de Milan (né vers 1250), médecin et chirurgien italien dont la Chirurgia magna, dédiée en 1296 à Philippe le Bel, « dominera tout l'enseignement chirurgical jusqu'à l'apparition de Guy de Chauliac ».
+1305 ou 1306 : Jacob ibn Tibbon (né vers 1236), astronome, médecin et traducteur juif provençal.
 </t>
         </is>
       </c>
